--- a/public/wildberries/IMPORT_TNVED_6302_18_06_wildberries.xlsx
+++ b/public/wildberries/IMPORT_TNVED_6302_18_06_wildberries.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190"/>
   </bookViews>
   <sheets>
-    <sheet sheetId="1" name="IMPORT_TNVED_6302" state="visible" r:id="rId4"/>
-    <sheet sheetId="2" name="Справочники" state="visible" r:id="rId5"/>
+    <sheet name="IMPORT_TNVED_6302" sheetId="1" r:id="rId1"/>
+    <sheet name="Справочники" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="238">
   <si>
     <t>Код ТНВЭД</t>
   </si>
@@ -726,6 +727,9 @@
   </si>
   <si>
     <t>Действие технических регламентов не распространяется</t>
+  </si>
+  <si>
+    <t>ЗЕЛЕНЫЙ</t>
   </si>
 </sst>
 </file>
@@ -734,24 +738,24 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <charset val="1"/>
-      <family val="2"/>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
-      <charset val="1"/>
-      <family val="2"/>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -779,7 +783,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="E3E3E3"/>
+        <fgColor rgb="FFE3E3E3"/>
       </patternFill>
     </fill>
     <fill>
@@ -804,17 +808,25 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -823,7 +835,7 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -835,32 +847,15 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1138,26 +1133,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="73" zoomScaleNormal="100">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.2" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="77.85546875" customWidth="1"/>
-    <col min="3" max="3" width="48" customWidth="1"/>
-    <col min="4" max="5" width="35" customWidth="1"/>
-    <col min="6" max="7" width="23" customWidth="1"/>
-    <col min="8" max="8" width="24" customWidth="1"/>
-    <col min="9" max="12" width="23" customWidth="1"/>
-    <col min="13" max="13" width="31" customWidth="1"/>
-    <col min="14" max="14" width="47" customWidth="1"/>
-    <col min="15" max="15" width="53" customWidth="1"/>
-    <col min="16" max="1024" width="11.42578125" customWidth="1"/>
+    <col min="2" max="2" width="53.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="90" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1296,7 +1282,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="102.75" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="4" t="s">
         <v>29</v>
@@ -1341,7 +1327,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -1357,9 +1343,18 @@
       <c r="E5" s="6" t="s">
         <v>38</v>
       </c>
+      <c r="F5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" t="s">
+        <v>237</v>
+      </c>
       <c r="H5" t="s">
         <v>39</v>
       </c>
+      <c r="I5" t="s">
+        <v>174</v>
+      </c>
       <c r="J5" t="s">
         <v>40</v>
       </c>
@@ -1376,7 +1371,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -1420,7 +1415,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -1436,7 +1431,7 @@
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -1452,7 +1447,7 @@
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -1468,7 +1463,7 @@
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -1482,7 +1477,7 @@
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -1496,7 +1491,7 @@
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -1511,17 +1506,7 @@
       <c r="N12" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D1:E1"/>
-  </mergeCells>
-  <conditionalFormatting sqref="B5:B12"/>
-  <conditionalFormatting sqref="B5:B12"/>
-  <pageMargins left="0.5" right="0.5" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" scale="0" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="0"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1529,11 +1514,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B207"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B203" sqref="B203"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.2" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
     <col min="2" max="2" width="50" customWidth="1"/>
@@ -1541,10 +1526,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="6"/>
+      <c r="B1" s="9"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
@@ -3123,7 +3108,7 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" scale="0" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="0"/>
+  <pageSetup paperSize="0" scale="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
